--- a/Arduino/DiceStateGenerators v2.xlsx
+++ b/Arduino/DiceStateGenerators v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aernoutvanrossum/Github/Quantum-Dice-by-UTwente/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCC0BB-23E8-284B-A8DE-DAAE6E1FABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C6307-401B-4041-8776-4E36942A7A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
+    <workbookView xWindow="11200" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="State definitions" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="193">
   <si>
     <t>requested</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t xml:space="preserve"> --&gt; </t>
+  </si>
+  <si>
+    <t>obs</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D527CBE5-F674-FD45-BE3F-A703ADFEAAA5}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
@@ -3444,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8556D-36AD-1140-93F1-0F7A5D3D131D}">
   <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView topLeftCell="F42" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60:Z65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3651,7 +3654,7 @@
         <v>63</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O67" si="2">$M$3</f>
+        <f t="shared" ref="O4:O65" si="2">$M$3</f>
         <v xml:space="preserve"> { </v>
       </c>
       <c r="P4" t="str">
@@ -3695,7 +3698,7 @@
         <v>ScreenStates::N1,</v>
       </c>
       <c r="Z4" t="str">
-        <f t="shared" ref="Z4:Z67" si="4">$M$6</f>
+        <f t="shared" ref="Z4:Z65" si="4">$M$6</f>
         <v>},</v>
       </c>
     </row>
@@ -8136,6 +8139,9 @@
       <c r="K60" t="s">
         <v>16</v>
       </c>
+      <c r="L60" t="s">
+        <v>192</v>
+      </c>
       <c r="O60" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { </v>
@@ -8216,48 +8222,51 @@
       <c r="K61" t="s">
         <v>16</v>
       </c>
+      <c r="L61" t="s">
+        <v>192</v>
+      </c>
       <c r="O61" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { </v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" ref="P61:P66" si="22">B$2&amp;B61&amp;$M$4</f>
+        <f t="shared" ref="P61:P65" si="22">B$2&amp;B61&amp;$M$4</f>
         <v>State::THROWING,</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" ref="Q61:Q66" si="23">C$2&amp;C61&amp;$M$4</f>
+        <f t="shared" ref="Q61:Q65" si="23">C$2&amp;C61&amp;$M$4</f>
         <v>DiceStates::UN_ENTANGLED_AB1,</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" ref="R61:R66" si="24">D$2&amp;D61&amp;$M$4</f>
+        <f t="shared" ref="R61:R65" si="24">D$2&amp;D61&amp;$M$4</f>
         <v>DiceNumbers::ANY,</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" ref="S61:S66" si="25">E$2&amp;E61&amp;$M$4</f>
+        <f t="shared" ref="S61:S65" si="25">E$2&amp;E61&amp;$M$4</f>
         <v>UpSide::ANY,</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" ref="T61:T66" si="26">F$2&amp;F61&amp;$M$4</f>
+        <f t="shared" ref="T61:T65" si="26">F$2&amp;F61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" ref="U61:U66" si="27">G$2&amp;G61&amp;$M$4</f>
+        <f t="shared" ref="U61:U65" si="27">G$2&amp;G61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" ref="V61:V66" si="28">H$2&amp;H61&amp;$M$4</f>
+        <f t="shared" ref="V61:V65" si="28">H$2&amp;H61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" ref="W61:W66" si="29">I$2&amp;I61&amp;$M$4</f>
+        <f t="shared" ref="W61:W65" si="29">I$2&amp;I61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="X61" t="str">
-        <f t="shared" ref="X61:X66" si="30">J$2&amp;J61&amp;$M$4</f>
+        <f t="shared" ref="X61:X65" si="30">J$2&amp;J61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" ref="Y61:Y66" si="31">K$2&amp;K61&amp;$M$4</f>
+        <f t="shared" ref="Y61:Y65" si="31">K$2&amp;K61&amp;$M$4</f>
         <v>ScreenStates::MIX1TO6,</v>
       </c>
       <c r="Z61" t="str">
@@ -8296,6 +8305,9 @@
       <c r="K62" t="s">
         <v>16</v>
       </c>
+      <c r="L62" t="s">
+        <v>192</v>
+      </c>
       <c r="O62" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { </v>
@@ -8376,6 +8388,9 @@
       <c r="K63" t="s">
         <v>16</v>
       </c>
+      <c r="L63" t="s">
+        <v>192</v>
+      </c>
       <c r="O63" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { </v>
@@ -8456,6 +8471,9 @@
       <c r="K64" t="s">
         <v>16</v>
       </c>
+      <c r="L64" t="s">
+        <v>192</v>
+      </c>
       <c r="O64" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> { </v>
@@ -8535,6 +8553,9 @@
       </c>
       <c r="K65" t="s">
         <v>16</v>
+      </c>
+      <c r="L65" t="s">
+        <v>192</v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="2"/>
